--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2934.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2934.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9756554900364394</v>
+        <v>1.561537265777588</v>
       </c>
       <c r="B1">
-        <v>1.817237643432617</v>
+        <v>1.77750551700592</v>
       </c>
       <c r="C1">
-        <v>7.14683031416233</v>
+        <v>4.13076639175415</v>
       </c>
       <c r="D1">
-        <v>3.213639219665311</v>
+        <v>1.921987533569336</v>
       </c>
       <c r="E1">
-        <v>1.46493166170998</v>
+        <v>0.7990439534187317</v>
       </c>
     </row>
   </sheetData>
